--- a/Prototypes/Oats/Observed/WinterSowingObservations.xlsx
+++ b/Prototypes/Oats/Observed/WinterSowingObservations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="10815" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="Obs2015" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
   <si>
     <t>SimulationName</t>
   </si>
@@ -109,6 +109,45 @@
   <si>
     <t>total</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>Oats.Leaf.CoverTotal</t>
+  </si>
+  <si>
+    <t>WinterSowing2016SowJulyFert400</t>
+  </si>
+  <si>
+    <t>WinterSowing2016SowAugFert400</t>
+  </si>
+  <si>
+    <t>Average of NDVIHC</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>NVDI scaled</t>
+  </si>
+  <si>
+    <t>WinterSowing2015SowJulyFert0</t>
+  </si>
+  <si>
+    <t>WinterSowing2015SowJulyFert400</t>
+  </si>
+  <si>
+    <t>WinterSowing2015SowAugFert0</t>
+  </si>
+  <si>
+    <t>WinterSowing2015SowAugFert400</t>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -162,6 +201,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,9 +496,10 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,151 +524,131 @@
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
-        <f>CONCATENATE("WinterSowing2015Sow",B2,"Fert",D2)</f>
-        <v>WinterSowing2015SowJulyFert0</v>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8">
+        <f>Working2015!B65</f>
+        <v>42236</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>Working2015!C65</f>
+        <v>-7.0771900861316744E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <f>Working2015!B66</f>
+        <v>42251</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>Working2015!C66</f>
+        <v>-7.9271417026715099E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <f>Working2015!B67</f>
+        <v>42263</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>Working2015!C67</f>
+        <v>-3.6277916118622543E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <f>Working2015!B68</f>
+        <v>42286</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>Working2015!C68</f>
+        <v>8.0845586697711982E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
         <f>Working2015!B4</f>
         <v>42291</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="E2">
-        <f>Working2015!I16</f>
-        <v>80.479817756456526</v>
-      </c>
-      <c r="H2">
-        <f>Working2015!I4</f>
-        <v>103.16570879243274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="str">
-        <f t="shared" ref="A3:A17" si="0">CONCATENATE("WinterSowing2015Sow",B3,"Fert",D3)</f>
-        <v>WinterSowing2015SowJulyFert400</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8">
-        <f>Working2015!B16</f>
-        <v>42291</v>
-      </c>
-      <c r="D3" s="7">
-        <v>400</v>
-      </c>
-      <c r="E3">
-        <f>Working2015!J16</f>
-        <v>79.12806692481378</v>
-      </c>
-      <c r="H3">
-        <f>Working2015!J4</f>
-        <v>98.999673388050653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowAugFert0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8">
-        <f>Working2015!B4</f>
-        <v>42291</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="E6">
         <f>Working2015!K16</f>
         <v>45.157206303016622</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <f>Working2015!K4</f>
         <v>53.351202558715372</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowAugFert400</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8">
-        <f>Working2015!B4</f>
-        <v>42291</v>
-      </c>
-      <c r="D5" s="7">
-        <v>400</v>
-      </c>
-      <c r="E5">
-        <f>Working2015!L16</f>
-        <v>38.875192170831426</v>
-      </c>
-      <c r="H5">
-        <f>Working2015!L4</f>
-        <v>46.633584877350529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowJulyFert0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8">
-        <f>Working2015!B5</f>
-        <v>42313</v>
-      </c>
-      <c r="D6" s="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <f>Working2015!B69</f>
+        <v>42307</v>
+      </c>
+      <c r="D7" s="7">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>379.875</v>
-      </c>
-      <c r="H6">
-        <v>379.87500000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowJulyFert400</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8">
-        <f>Working2015!B5</f>
-        <v>42313</v>
-      </c>
-      <c r="D7" s="7">
-        <v>400</v>
-      </c>
-      <c r="E7">
-        <v>538.375</v>
-      </c>
-      <c r="H7">
-        <v>538.37499999999989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowAugFert0</v>
+      <c r="I7">
+        <f>Working2015!C69</f>
+        <v>0.1951970129843735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -645,206 +666,849 @@
       <c r="H8">
         <v>197.62499999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowAugFert400</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="I8">
+        <f>Working2015!C70</f>
+        <v>0.28953648383122527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="8">
-        <f>Working2015!B5</f>
-        <v>42313</v>
+        <f>Working2015!B71</f>
+        <v>42320</v>
       </c>
       <c r="D9" s="7">
-        <v>400</v>
-      </c>
-      <c r="E9">
-        <v>306.74999999999994</v>
-      </c>
-      <c r="H9">
-        <v>306.74999999999989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowJulyFert0</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>Working2015!C71</f>
+        <v>0.42096265543647082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="8">
-        <f>Working2015!B6</f>
-        <v>42327</v>
+        <f>Working2015!B72</f>
+        <v>42326</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>609.82241035011566</v>
-      </c>
-      <c r="H10">
-        <v>609.82241035011566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowJulyFert400</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
+      <c r="I10">
+        <f>Working2015!C72</f>
+        <v>0.33854959598709544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
       <c r="C11" s="8">
         <f>Working2015!B6</f>
         <v>42327</v>
       </c>
       <c r="D11" s="7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1177.6120684648981</v>
+        <v>498.94921984416942</v>
       </c>
       <c r="H11">
-        <v>1177.6120684648979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowAugFert0</v>
-      </c>
-      <c r="B12" t="s">
+        <v>498.94921984416936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="8">
+        <f>Working2015!B73</f>
+        <v>42332</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>Working2015!C73</f>
+        <v>0.41143819642484358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
+        <f>Working2015!B7</f>
+        <v>42334</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>665.06710364580556</v>
+      </c>
+      <c r="H13">
+        <v>665.06710364580556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8">
+        <f>Working2015!B79</f>
+        <v>42236</v>
+      </c>
+      <c r="D14" s="7">
+        <v>400</v>
+      </c>
+      <c r="I14">
+        <f>Working2015!C79</f>
+        <v>-1.4912649951290002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8">
+        <f>Working2015!B80</f>
+        <v>42251</v>
+      </c>
+      <c r="D15" s="7">
+        <v>400</v>
+      </c>
+      <c r="I15">
+        <f>Working2015!C80</f>
+        <v>-3.3227935303172876E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8">
+        <f>Working2015!B81</f>
+        <v>42263</v>
+      </c>
+      <c r="D16" s="7">
+        <v>400</v>
+      </c>
+      <c r="I16">
+        <f>Working2015!C81</f>
+        <v>-1.7606491381281033E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8">
+        <f>Working2015!B82</f>
+        <v>42286</v>
+      </c>
+      <c r="D17" s="7">
+        <v>400</v>
+      </c>
+      <c r="I17">
+        <f>Working2015!C82</f>
+        <v>0.10669588244407487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <f>Working2015!B4</f>
+        <v>42291</v>
+      </c>
+      <c r="D18" s="7">
+        <v>400</v>
+      </c>
+      <c r="E18">
+        <f>Working2015!L16</f>
+        <v>38.875192170831426</v>
+      </c>
+      <c r="H18">
+        <f>Working2015!L4</f>
+        <v>46.633584877350529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8">
+        <f>Working2015!B83</f>
+        <v>42307</v>
+      </c>
+      <c r="D19" s="7">
+        <v>400</v>
+      </c>
+      <c r="I19">
+        <f>Working2015!C83</f>
+        <v>0.36241318494733049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8">
+        <f>Working2015!B5</f>
+        <v>42313</v>
+      </c>
+      <c r="D20" s="7">
+        <v>400</v>
+      </c>
+      <c r="E20">
+        <v>306.74999999999994</v>
+      </c>
+      <c r="H20">
+        <v>306.74999999999989</v>
+      </c>
+      <c r="I20">
+        <f>Working2015!C84</f>
+        <v>0.49531254170947692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8">
+        <f>Working2015!B85</f>
+        <v>42320</v>
+      </c>
+      <c r="D21" s="7">
+        <v>400</v>
+      </c>
+      <c r="I21">
+        <f>Working2015!C85</f>
+        <v>0.63918605584972565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8">
+        <f>Working2015!B86</f>
+        <v>42326</v>
+      </c>
+      <c r="D22" s="7">
+        <v>400</v>
+      </c>
+      <c r="I22">
+        <f>Working2015!C86</f>
+        <v>0.61534720399991338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8">
         <f>Working2015!B6</f>
         <v>42327</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D23" s="7">
+        <v>400</v>
+      </c>
+      <c r="E23">
+        <v>895.81228674528279</v>
+      </c>
+      <c r="H23">
+        <v>895.8122867452829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="8">
+        <f>Working2015!B87</f>
+        <v>42332</v>
+      </c>
+      <c r="D24" s="7">
+        <v>400</v>
+      </c>
+      <c r="I24">
+        <f>Working2015!C87</f>
+        <v>0.63436387671271699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <f>Working2015!B7</f>
+        <v>42334</v>
+      </c>
+      <c r="D25" s="7">
+        <v>400</v>
+      </c>
+      <c r="E25">
+        <v>1083.9339894824084</v>
+      </c>
+      <c r="H25">
+        <v>1083.9339894824084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8">
+        <f>Working2015!B40</f>
+        <v>42236</v>
+      </c>
+      <c r="D26" s="7">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>498.94921984416942</v>
-      </c>
-      <c r="H12">
-        <v>498.94921984416936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowAugFert400</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="I26">
+        <f>Working2015!C40</f>
+        <v>2.5997889987357085E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8">
+        <f>Working2015!B41</f>
+        <v>42251</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>Working2015!C41</f>
+        <v>3.232853852816675E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8">
+        <f>Working2015!B42</f>
+        <v>42263</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>Working2015!C42</f>
+        <v>-2.296803311300415E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8">
+        <f>Working2015!B43</f>
+        <v>42286</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>Working2015!C43</f>
+        <v>0.12950038850840442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8">
+        <f>Working2015!B4</f>
+        <v>42291</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>Working2015!I16</f>
+        <v>80.479817756456526</v>
+      </c>
+      <c r="H30">
+        <f>Working2015!I4</f>
+        <v>103.16570879243274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8">
+        <f>Working2015!B44</f>
+        <v>42307</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>Working2015!C44</f>
+        <v>0.3200663582646206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8">
+        <f>Working2015!B5</f>
+        <v>42313</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>379.875</v>
+      </c>
+      <c r="H32">
+        <v>379.87500000000006</v>
+      </c>
+      <c r="I32">
+        <f>Working2015!C45</f>
+        <v>0.36291752685797624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8">
+        <f>Working2015!B46</f>
+        <v>42320</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>Working2015!C46</f>
+        <v>0.49508624905968723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8">
+        <f>Working2015!B47</f>
+        <v>42326</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>Working2015!C47</f>
+        <v>0.44007251055152902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8">
         <f>Working2015!B6</f>
         <v>42327</v>
       </c>
-      <c r="D13" s="7">
-        <v>400</v>
-      </c>
-      <c r="E13">
-        <v>895.81228674528279</v>
-      </c>
-      <c r="H13">
-        <v>895.8122867452829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowJulyFert0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>609.82241035011566</v>
+      </c>
+      <c r="H35">
+        <v>609.82241035011566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8">
+        <f>Working2015!B48</f>
+        <v>42332</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>Working2015!C48</f>
+        <v>0.45860803358034363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8">
         <f>Working2015!B7</f>
         <v>42334</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D37" s="7">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E37">
         <v>850.00019112055929</v>
       </c>
-      <c r="H14">
+      <c r="H37">
         <v>850.00019112055929</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowJulyFert400</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="8">
+        <f>Working2015!B52</f>
+        <v>42236</v>
+      </c>
+      <c r="D38" s="7">
+        <v>400</v>
+      </c>
+      <c r="I38">
+        <f>Working2015!C52</f>
+        <v>1.2338792586054723E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8">
+        <f>Working2015!B53</f>
+        <v>42251</v>
+      </c>
+      <c r="D39" s="7">
+        <v>400</v>
+      </c>
+      <c r="I39">
+        <f>Working2015!C53</f>
+        <v>2.5726233659412217E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="8">
+        <f>Working2015!B54</f>
+        <v>42263</v>
+      </c>
+      <c r="D40" s="7">
+        <v>400</v>
+      </c>
+      <c r="I40">
+        <f>Working2015!C54</f>
+        <v>-2.5999184015266165E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8">
+        <f>Working2015!B55</f>
+        <v>42286</v>
+      </c>
+      <c r="D41" s="7">
+        <v>400</v>
+      </c>
+      <c r="I41">
+        <f>Working2015!C55</f>
+        <v>0.15569347023179012</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="8">
+        <f>Working2015!B16</f>
+        <v>42291</v>
+      </c>
+      <c r="D42" s="7">
+        <v>400</v>
+      </c>
+      <c r="E42">
+        <f>Working2015!J16</f>
+        <v>79.12806692481378</v>
+      </c>
+      <c r="H42">
+        <f>Working2015!J4</f>
+        <v>98.999673388050653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8">
+        <f>Working2015!B56</f>
+        <v>42307</v>
+      </c>
+      <c r="D43" s="7">
+        <v>400</v>
+      </c>
+      <c r="I43">
+        <f>Working2015!C56</f>
+        <v>0.55493260588330862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="8">
+        <f>Working2015!B5</f>
+        <v>42313</v>
+      </c>
+      <c r="D44" s="7">
+        <v>400</v>
+      </c>
+      <c r="E44">
+        <v>538.375</v>
+      </c>
+      <c r="H44">
+        <v>538.37499999999989</v>
+      </c>
+      <c r="I44">
+        <f>Working2015!C57</f>
+        <v>0.58422035854299259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8">
+        <f>Working2015!B58</f>
+        <v>42320</v>
+      </c>
+      <c r="D45" s="7">
+        <v>400</v>
+      </c>
+      <c r="I45">
+        <f>Working2015!C58</f>
+        <v>0.73263817025301192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8">
+        <f>Working2015!B59</f>
+        <v>42326</v>
+      </c>
+      <c r="D46" s="7">
+        <v>400</v>
+      </c>
+      <c r="I46">
+        <f>Working2015!C59</f>
+        <v>0.71802726381423376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8">
+        <f>Working2015!B6</f>
+        <v>42327</v>
+      </c>
+      <c r="D47" s="7">
+        <v>400</v>
+      </c>
+      <c r="E47">
+        <v>1177.6120684648981</v>
+      </c>
+      <c r="H47">
+        <v>1177.6120684648979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="8">
+        <f>Working2015!B60</f>
+        <v>42332</v>
+      </c>
+      <c r="D48" s="7">
+        <v>400</v>
+      </c>
+      <c r="I48">
+        <f>Working2015!C60</f>
+        <v>0.70845955369607716</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8">
         <f>Working2015!B7</f>
         <v>42334</v>
       </c>
-      <c r="D15" s="7">
-        <v>400</v>
-      </c>
-      <c r="E15">
+      <c r="D49" s="7">
+        <v>400</v>
+      </c>
+      <c r="E49">
         <v>1076.2047045581551</v>
       </c>
-      <c r="H15">
+      <c r="H49">
         <v>1076.2047045581551</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowAugFert0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="8">
-        <f>Working2015!B7</f>
-        <v>42334</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>665.06710364580556</v>
-      </c>
-      <c r="H16">
-        <v>665.06710364580556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2015SowAugFert400</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="8">
-        <f>Working2015!B7</f>
-        <v>42334</v>
-      </c>
-      <c r="D17" s="7">
-        <v>400</v>
-      </c>
-      <c r="E17">
-        <v>1083.9339894824084</v>
-      </c>
-      <c r="H17">
-        <v>1083.9339894824084</v>
-      </c>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:I53">
+    <sortCondition ref="A2:A53"/>
+    <sortCondition ref="C2:C53"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -852,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,9 +1530,10 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,123 +1558,127 @@
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
-        <f>CONCATENATE("WinterSowing2016Sow",B2,"Fert",D2)</f>
-        <v>WinterSowing2016SowJulyFert400</v>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8">
-        <f>Working2016!K17</f>
-        <v>42647</v>
+        <f>Working2016!D43</f>
+        <v>42613</v>
       </c>
       <c r="D2" s="7">
         <v>400</v>
       </c>
-      <c r="H2">
-        <f>Working2016!M17</f>
-        <v>103.94999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="str">
-        <f t="shared" ref="A3:A9" si="0">CONCATENATE("WinterSowing2016Sow",B3,"Fert",D3)</f>
-        <v>WinterSowing2016SowJulyFert400</v>
+      <c r="I2" s="9">
+        <f>Working2016!F43</f>
+        <v>5.9133800437307843E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="8">
-        <f>Working2016!K20</f>
-        <v>42669</v>
+        <f>Working2016!D44</f>
+        <v>42620</v>
       </c>
       <c r="D3" s="7">
         <v>400</v>
       </c>
-      <c r="H3">
-        <f>Working2016!M20</f>
-        <v>443.64180220415534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2016SowJulyFert400</v>
+      <c r="I3" s="9">
+        <f>Working2016!F44</f>
+        <v>7.5114750854522322E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="8">
-        <f>Working2016!K23</f>
-        <v>42677</v>
+        <f>Working2016!D45</f>
+        <v>42627</v>
       </c>
       <c r="D4" s="7">
         <v>400</v>
       </c>
-      <c r="H4">
-        <f>Working2016!M23</f>
-        <v>697.32810409197725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2016SowJulyFert400</v>
+      <c r="I4" s="9">
+        <f>Working2016!F45</f>
+        <v>9.6572314108108515E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="8">
-        <f>Working2016!K26</f>
-        <v>42702</v>
+        <f>Working2016!D46</f>
+        <v>42632</v>
       </c>
       <c r="D5" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2016SowJulyFert400</v>
+      <c r="I5" s="9">
+        <f>Working2016!F46</f>
+        <v>0.16720804214354357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8">
-        <f>Working2016!K28</f>
-        <v>42688</v>
+        <f>Working2016!D47</f>
+        <v>42642</v>
       </c>
       <c r="D6" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2016SowJulyFert400</v>
+      <c r="I6" s="9">
+        <f>Working2016!F47</f>
+        <v>0.517041457244383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8">
-        <f>Working2016!K30</f>
-        <v>42697</v>
+        <f>Working2016!D48</f>
+        <v>42646</v>
       </c>
       <c r="D7" s="7">
         <v>400</v>
       </c>
-      <c r="H7">
-        <f>Working2016!M30</f>
-        <v>1276.7247244337038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>WinterSowing2016SowAugFert400</v>
+      <c r="I7" s="9">
+        <f>Working2016!F48</f>
+        <v>0.60303121205786914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -1026,117 +1695,627 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str">
-        <f t="shared" ref="A9:A14" si="1">CONCATENATE("WinterSowing2016Sow",B9,"Fert",D9)</f>
-        <v>WinterSowing2016SowAugFert400</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="8">
+        <f>Working2016!D49</f>
+        <v>42656</v>
+      </c>
+      <c r="D9" s="7">
+        <v>400</v>
+      </c>
+      <c r="I9" s="9">
+        <f>Working2016!F49</f>
+        <v>0.72753945401351572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8">
+        <f>Working2016!D50</f>
+        <v>42661</v>
+      </c>
+      <c r="D10" s="7">
+        <v>400</v>
+      </c>
+      <c r="I10" s="9">
+        <f>Working2016!F50</f>
+        <v>0.87597668882701507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
         <f>Working2016!K20</f>
         <v>42669</v>
       </c>
-      <c r="D9" s="7">
-        <v>400</v>
-      </c>
-      <c r="H9">
+      <c r="D11" s="7">
+        <v>400</v>
+      </c>
+      <c r="H11">
         <f>Working2016!N20</f>
         <v>326.70985601182326</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>WinterSowing2016SowAugFert400</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8">
+        <f>Working2016!D51</f>
+        <v>42674</v>
+      </c>
+      <c r="D12" s="7">
+        <v>400</v>
+      </c>
+      <c r="I12" s="9">
+        <f>Working2016!F51</f>
+        <v>0.9265631035124563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
         <f>Working2016!K23</f>
         <v>42677</v>
       </c>
-      <c r="D10" s="7">
-        <v>400</v>
-      </c>
-      <c r="H10">
+      <c r="D13" s="7">
+        <v>400</v>
+      </c>
+      <c r="H13">
         <f>Working2016!N23</f>
         <v>493.39930772030198</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>WinterSowing2016SowAugFert400</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8">
+        <f>Working2016!D52</f>
+        <v>42681</v>
+      </c>
+      <c r="D14" s="7">
+        <v>400</v>
+      </c>
+      <c r="I14" s="9">
+        <f>Working2016!F52</f>
+        <v>0.94889808686034582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8">
+        <f>Working2016!K28</f>
+        <v>42688</v>
+      </c>
+      <c r="D15" s="7">
+        <v>400</v>
+      </c>
+      <c r="H15">
+        <f>Working2016!N28</f>
+        <v>716.54058162197407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8">
+        <f>Working2016!D53</f>
+        <v>42690</v>
+      </c>
+      <c r="D16" s="7">
+        <v>400</v>
+      </c>
+      <c r="I16" s="9">
+        <f>Working2016!F53</f>
+        <v>0.94688679387629826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8">
+        <f>Working2016!K30</f>
+        <v>42697</v>
+      </c>
+      <c r="D17" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <f>Working2016!D54</f>
+        <v>42698</v>
+      </c>
+      <c r="D18" s="7">
+        <v>400</v>
+      </c>
+      <c r="I18" s="9">
+        <f>Working2016!F54</f>
+        <v>0.95646388548584804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8">
         <f>Working2016!K26</f>
         <v>42702</v>
       </c>
-      <c r="D11" s="7">
-        <v>400</v>
-      </c>
-      <c r="H11">
+      <c r="D19" s="7">
+        <v>400</v>
+      </c>
+      <c r="H19">
         <f>Working2016!N26</f>
         <v>1194.303603731654</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>WinterSowing2016SowAugFert400</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8">
+        <f>Working2016!D40</f>
+        <v>42591</v>
+      </c>
+      <c r="D20" s="7">
+        <v>400</v>
+      </c>
+      <c r="I20" s="9">
+        <f>Working2016!E40</f>
+        <v>1.1149581602435645E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8">
+        <f>Working2016!D41</f>
+        <v>42598</v>
+      </c>
+      <c r="D21" s="7">
+        <v>400</v>
+      </c>
+      <c r="I21" s="9">
+        <f>Working2016!E41</f>
+        <v>2.9491704422714687E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8">
+        <f>Working2016!D42</f>
+        <v>42605</v>
+      </c>
+      <c r="D22" s="7">
+        <v>400</v>
+      </c>
+      <c r="I22" s="9">
+        <f>Working2016!E42</f>
+        <v>6.1465108166830915E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8">
+        <f>Working2016!D43</f>
+        <v>42613</v>
+      </c>
+      <c r="D23" s="7">
+        <v>400</v>
+      </c>
+      <c r="I23" s="9">
+        <f>Working2016!E43</f>
+        <v>9.8030649959965105E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
+        <f>Working2016!D44</f>
+        <v>42620</v>
+      </c>
+      <c r="D24" s="7">
+        <v>400</v>
+      </c>
+      <c r="I24" s="9">
+        <f>Working2016!E44</f>
+        <v>0.13867037227176035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8">
+        <f>Working2016!D45</f>
+        <v>42627</v>
+      </c>
+      <c r="D25" s="7">
+        <v>400</v>
+      </c>
+      <c r="I25" s="9">
+        <f>Working2016!E45</f>
+        <v>0.25155249440381527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8">
+        <f>Working2016!D46</f>
+        <v>42632</v>
+      </c>
+      <c r="D26" s="7">
+        <v>400</v>
+      </c>
+      <c r="I26" s="9">
+        <f>Working2016!E46</f>
+        <v>0.47149291570097024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8">
+        <f>Working2016!D47</f>
+        <v>42642</v>
+      </c>
+      <c r="D27" s="7">
+        <v>400</v>
+      </c>
+      <c r="I27" s="9">
+        <f>Working2016!E47</f>
+        <v>0.87417684873690948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8">
+        <f>Working2016!D48</f>
+        <v>42646</v>
+      </c>
+      <c r="D28" s="7">
+        <v>400</v>
+      </c>
+      <c r="I28" s="9">
+        <f>Working2016!E48</f>
+        <v>0.91107498686249078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8">
+        <f>Working2016!K17</f>
+        <v>42647</v>
+      </c>
+      <c r="D29" s="7">
+        <v>400</v>
+      </c>
+      <c r="H29">
+        <f>Working2016!M17</f>
+        <v>103.94999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8">
+        <f>Working2016!D49</f>
+        <v>42656</v>
+      </c>
+      <c r="D30" s="7">
+        <v>400</v>
+      </c>
+      <c r="I30" s="9">
+        <f>Working2016!E49</f>
+        <v>0.8976839548804546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8">
+        <f>Working2016!D50</f>
+        <v>42661</v>
+      </c>
+      <c r="D31" s="7">
+        <v>400</v>
+      </c>
+      <c r="I31" s="9">
+        <f>Working2016!E50</f>
+        <v>0.94110594459900221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8">
+        <f>Working2016!K20</f>
+        <v>42669</v>
+      </c>
+      <c r="D32" s="7">
+        <v>400</v>
+      </c>
+      <c r="H32">
+        <f>Working2016!M20</f>
+        <v>443.64180220415534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8">
+        <f>Working2016!D51</f>
+        <v>42674</v>
+      </c>
+      <c r="D33" s="7">
+        <v>400</v>
+      </c>
+      <c r="I33" s="9">
+        <f>Working2016!E51</f>
+        <v>0.93009602507804279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8">
+        <f>Working2016!K23</f>
+        <v>42677</v>
+      </c>
+      <c r="D34" s="7">
+        <v>400</v>
+      </c>
+      <c r="H34">
+        <f>Working2016!M23</f>
+        <v>697.32810409197725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8">
+        <f>Working2016!D52</f>
+        <v>42681</v>
+      </c>
+      <c r="D35" s="7">
+        <v>400</v>
+      </c>
+      <c r="I35" s="9">
+        <f>Working2016!E52</f>
+        <v>0.95123097506735144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8">
         <f>Working2016!K28</f>
         <v>42688</v>
       </c>
-      <c r="D12" s="7">
-        <v>400</v>
-      </c>
-      <c r="H12">
-        <f>Working2016!N28</f>
-        <v>716.54058162197407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>WinterSowing2016SowAugFert400</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="D36" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8">
+        <f>Working2016!D53</f>
+        <v>42690</v>
+      </c>
+      <c r="D37" s="7">
+        <v>400</v>
+      </c>
+      <c r="I37" s="9">
+        <f>Working2016!E53</f>
+        <v>0.94272812720050558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="8">
         <f>Working2016!K30</f>
         <v>42697</v>
       </c>
-      <c r="D13" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="D38" s="7">
+        <v>400</v>
+      </c>
+      <c r="H38">
+        <f>Working2016!M30</f>
+        <v>1276.7247244337038</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8">
+        <f>Working2016!D54</f>
+        <v>42698</v>
+      </c>
+      <c r="D39" s="7">
+        <v>400</v>
+      </c>
+      <c r="I39" s="9">
+        <f>Working2016!E54</f>
+        <v>0.93325157821378224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="8">
+        <f>Working2016!K26</f>
+        <v>42702</v>
+      </c>
+      <c r="D40" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="I44" s="9"/>
     </row>
   </sheetData>
+  <sortState ref="A2:I40">
+    <sortCondition ref="A2:A40"/>
+    <sortCondition ref="C2:C40"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1144,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R31"/>
+  <dimension ref="B3:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,6 +2852,181 @@
       </c>
       <c r="K31" s="5"/>
     </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="5">
+        <v>42591</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1.1149581602435645E-2</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="5">
+        <v>42598</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2.9491704422714687E-2</v>
+      </c>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="5">
+        <v>42605</v>
+      </c>
+      <c r="E42" s="9">
+        <v>6.1465108166830915E-2</v>
+      </c>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="5">
+        <v>42613</v>
+      </c>
+      <c r="E43" s="9">
+        <v>9.8030649959965105E-2</v>
+      </c>
+      <c r="F43" s="9">
+        <v>5.9133800437307843E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="5">
+        <v>42620</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.13867037227176035</v>
+      </c>
+      <c r="F44" s="9">
+        <v>7.5114750854522322E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="5">
+        <v>42627</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.25155249440381527</v>
+      </c>
+      <c r="F45" s="9">
+        <v>9.6572314108108515E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="5">
+        <v>42632</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.47149291570097024</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0.16720804214354357</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="5">
+        <v>42642</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.87417684873690948</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0.517041457244383</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="5">
+        <v>42646</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.91107498686249078</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0.60303121205786914</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="5">
+        <v>42656</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0.8976839548804546</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0.72753945401351572</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="5">
+        <v>42661</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.94110594459900221</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.87597668882701507</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="5">
+        <v>42674</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.93009602507804279</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.9265631035124563</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="5">
+        <v>42681</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.95123097506735144</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0.94889808686034582</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="5">
+        <v>42690</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0.94272812720050558</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0.94688679387629826</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="5">
+        <v>42698</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0.93325157821378224</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0.95646388548584804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1680,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:L87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:L19"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,6 +3410,578 @@
         <v>1083.9339894824084</v>
       </c>
     </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>400</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>42236</v>
+      </c>
+      <c r="C29">
+        <v>1.7201028445925623E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.12597106386816E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.5997889987357085E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.2338792586054723E-2</v>
+      </c>
+      <c r="G29">
+        <v>-7.0771900861316744E-3</v>
+      </c>
+      <c r="H29">
+        <v>-1.4912649951290002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>42251</v>
+      </c>
+      <c r="C30">
+        <v>1.7673307494588977E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.4611744841072253E-2</v>
+      </c>
+      <c r="E30">
+        <v>3.232853852816675E-2</v>
+      </c>
+      <c r="F30">
+        <v>2.5726233659412217E-2</v>
+      </c>
+      <c r="G30">
+        <v>-7.9271417026715099E-3</v>
+      </c>
+      <c r="H30">
+        <v>-3.3227935303172876E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>42263</v>
+      </c>
+      <c r="C31">
+        <v>-1.2666610304513043E-2</v>
+      </c>
+      <c r="D31">
+        <v>-2.1821310060179285E-2</v>
+      </c>
+      <c r="E31">
+        <v>-2.296803311300415E-2</v>
+      </c>
+      <c r="F31">
+        <v>-2.5999184015266165E-2</v>
+      </c>
+      <c r="G31">
+        <v>-3.6277916118622543E-2</v>
+      </c>
+      <c r="H31">
+        <v>-1.7606491381281033E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>42286</v>
+      </c>
+      <c r="C32">
+        <v>3.797928619902681E-2</v>
+      </c>
+      <c r="D32">
+        <v>3.7242105383582691E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.12950038850840442</v>
+      </c>
+      <c r="F32">
+        <v>0.15569347023179012</v>
+      </c>
+      <c r="G32">
+        <v>8.0845586697711982E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.10669588244407487</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>42307</v>
+      </c>
+      <c r="C33">
+        <v>-6.9873924287313913E-2</v>
+      </c>
+      <c r="D33">
+        <v>-8.3521434182636953E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.3200663582646206</v>
+      </c>
+      <c r="F33">
+        <v>0.55493260588330862</v>
+      </c>
+      <c r="G33">
+        <v>0.1951970129843735</v>
+      </c>
+      <c r="H33">
+        <v>0.36241318494733049</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>42313</v>
+      </c>
+      <c r="C34">
+        <v>-2.0196827865432226E-2</v>
+      </c>
+      <c r="D34">
+        <v>-3.8085140740323348E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.36291752685797624</v>
+      </c>
+      <c r="F34">
+        <v>0.58422035854299259</v>
+      </c>
+      <c r="G34">
+        <v>0.28953648383122527</v>
+      </c>
+      <c r="H34">
+        <v>0.49531254170947692</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>42320</v>
+      </c>
+      <c r="C35">
+        <v>-6.4322974706986016E-3</v>
+      </c>
+      <c r="D35">
+        <v>-5.2879700624769696E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.49508624905968723</v>
+      </c>
+      <c r="F35">
+        <v>0.73263817025301192</v>
+      </c>
+      <c r="G35">
+        <v>0.42096265543647082</v>
+      </c>
+      <c r="H35">
+        <v>0.63918605584972565</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <v>42326</v>
+      </c>
+      <c r="C36">
+        <v>-1.9792536050817093E-2</v>
+      </c>
+      <c r="D36">
+        <v>-5.091695141077146E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.44007251055152902</v>
+      </c>
+      <c r="F36">
+        <v>0.71802726381423376</v>
+      </c>
+      <c r="G36">
+        <v>0.33854959598709544</v>
+      </c>
+      <c r="H36">
+        <v>0.61534720399991338</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
+        <v>42332</v>
+      </c>
+      <c r="C37">
+        <v>-2.3808384913531454E-2</v>
+      </c>
+      <c r="D37">
+        <v>-5.4701705439887373E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.45860803358034363</v>
+      </c>
+      <c r="F37">
+        <v>0.70845955369607716</v>
+      </c>
+      <c r="G37">
+        <v>0.41143819642484358</v>
+      </c>
+      <c r="H37">
+        <v>0.63436387671271699</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <v>42236</v>
+      </c>
+      <c r="C40">
+        <v>2.5997889987357085E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <v>42251</v>
+      </c>
+      <c r="C41">
+        <v>3.232853852816675E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <v>42263</v>
+      </c>
+      <c r="C42">
+        <v>-2.296803311300415E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <v>42286</v>
+      </c>
+      <c r="C43">
+        <v>0.12950038850840442</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
+        <v>42307</v>
+      </c>
+      <c r="C44">
+        <v>0.3200663582646206</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <v>42313</v>
+      </c>
+      <c r="C45">
+        <v>0.36291752685797624</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
+        <v>42320</v>
+      </c>
+      <c r="C46">
+        <v>0.49508624905968723</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5">
+        <v>42326</v>
+      </c>
+      <c r="C47">
+        <v>0.44007251055152902</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
+        <v>42332</v>
+      </c>
+      <c r="C48">
+        <v>0.45860803358034363</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
+        <v>42236</v>
+      </c>
+      <c r="C52">
+        <v>1.2338792586054723E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="5">
+        <v>42251</v>
+      </c>
+      <c r="C53">
+        <v>2.5726233659412217E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="5">
+        <v>42263</v>
+      </c>
+      <c r="C54">
+        <v>-2.5999184015266165E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="5">
+        <v>42286</v>
+      </c>
+      <c r="C55">
+        <v>0.15569347023179012</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="5">
+        <v>42307</v>
+      </c>
+      <c r="C56">
+        <v>0.55493260588330862</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="5">
+        <v>42313</v>
+      </c>
+      <c r="C57">
+        <v>0.58422035854299259</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="5">
+        <v>42320</v>
+      </c>
+      <c r="C58">
+        <v>0.73263817025301192</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="5">
+        <v>42326</v>
+      </c>
+      <c r="C59">
+        <v>0.71802726381423376</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="5">
+        <v>42332</v>
+      </c>
+      <c r="C60">
+        <v>0.70845955369607716</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="5">
+        <v>42236</v>
+      </c>
+      <c r="C65">
+        <v>-7.0771900861316744E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="5">
+        <v>42251</v>
+      </c>
+      <c r="C66">
+        <v>-7.9271417026715099E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="5">
+        <v>42263</v>
+      </c>
+      <c r="C67">
+        <v>-3.6277916118622543E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="5">
+        <v>42286</v>
+      </c>
+      <c r="C68">
+        <v>8.0845586697711982E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="5">
+        <v>42307</v>
+      </c>
+      <c r="C69">
+        <v>0.1951970129843735</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="5">
+        <v>42313</v>
+      </c>
+      <c r="C70">
+        <v>0.28953648383122527</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="5">
+        <v>42320</v>
+      </c>
+      <c r="C71">
+        <v>0.42096265543647082</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="5">
+        <v>42326</v>
+      </c>
+      <c r="C72">
+        <v>0.33854959598709544</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="5">
+        <v>42332</v>
+      </c>
+      <c r="C73">
+        <v>0.41143819642484358</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="5">
+        <v>42236</v>
+      </c>
+      <c r="C79">
+        <v>-1.4912649951290002E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="5">
+        <v>42251</v>
+      </c>
+      <c r="C80">
+        <v>-3.3227935303172876E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="5">
+        <v>42263</v>
+      </c>
+      <c r="C81">
+        <v>-1.7606491381281033E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="5">
+        <v>42286</v>
+      </c>
+      <c r="C82">
+        <v>0.10669588244407487</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="5">
+        <v>42307</v>
+      </c>
+      <c r="C83">
+        <v>0.36241318494733049</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="5">
+        <v>42313</v>
+      </c>
+      <c r="C84">
+        <v>0.49531254170947692</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="5">
+        <v>42320</v>
+      </c>
+      <c r="C85">
+        <v>0.63918605584972565</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="5">
+        <v>42326</v>
+      </c>
+      <c r="C86">
+        <v>0.61534720399991338</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="5">
+        <v>42332</v>
+      </c>
+      <c r="C87">
+        <v>0.63436387671271699</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Prototypes/Oats/Observed/WinterSowingObservations.xlsx
+++ b/Prototypes/Oats/Observed/WinterSowingObservations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="46">
   <si>
     <t>SimulationName</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t>WinterSowing2015SowAugFert400</t>
+  </si>
+  <si>
+    <t>N uptake</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>July sowing</t>
+  </si>
+  <si>
+    <t>August sowing</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Oats.AboveGround.N</t>
   </si>
 </sst>
 </file>
@@ -482,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,9 +515,10 @@
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +546,11 @@
       <c r="I1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -547,7 +569,7 @@
         <v>-7.0771900861316744E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -566,7 +588,7 @@
         <v>-7.9271417026715099E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -585,7 +607,7 @@
         <v>-3.6277916118622543E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -604,7 +626,7 @@
         <v>8.0845586697711982E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -626,8 +648,12 @@
         <f>Working2015!K4</f>
         <v>53.351202558715372</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f>Working2015!Q31</f>
+        <v>18.756897021055263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -646,7 +672,7 @@
         <v>0.1951970129843735</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -670,8 +696,12 @@
         <f>Working2015!C70</f>
         <v>0.28953648383122527</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>Working2015!Q32</f>
+        <v>34.433862499999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -690,7 +720,7 @@
         <v>0.42096265543647082</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
@@ -709,7 +739,7 @@
         <v>0.33854959598709544</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -729,8 +759,12 @@
       <c r="H11">
         <v>498.94921984416936</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f>Working2015!Q33</f>
+        <v>60.614684173680061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -749,7 +783,7 @@
         <v>0.41143819642484358</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -769,8 +803,12 @@
       <c r="H13">
         <v>665.06710364580556</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f>Working2015!Q34</f>
+        <v>76.163835016052545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -789,7 +827,7 @@
         <v>-1.4912649951290002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -808,7 +846,7 @@
         <v>-3.3227935303172876E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -827,7 +865,7 @@
         <v>-1.7606491381281033E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -846,7 +884,7 @@
         <v>0.10669588244407487</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -868,8 +906,12 @@
         <f>Working2015!L4</f>
         <v>46.633584877350529</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>Working2015!Q35</f>
+        <v>17.986797034807569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -888,7 +930,7 @@
         <v>0.36241318494733049</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -912,8 +954,12 @@
         <f>Working2015!C84</f>
         <v>0.49531254170947692</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>Working2015!Q36</f>
+        <v>91.719687499999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -932,7 +978,7 @@
         <v>0.63918605584972565</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -951,7 +997,7 @@
         <v>0.61534720399991338</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
@@ -971,8 +1017,12 @@
       <c r="H23">
         <v>895.8122867452829</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f>Working2015!Q37</f>
+        <v>199.70428239822084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -991,7 +1041,7 @@
         <v>0.63436387671271699</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
@@ -1011,8 +1061,12 @@
       <c r="H25">
         <v>1083.9339894824084</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f>Working2015!Q38</f>
+        <v>228.53683135586755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -1031,7 +1085,7 @@
         <v>2.5997889987357085E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>36</v>
       </c>
@@ -1050,7 +1104,7 @@
         <v>3.232853852816675E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
@@ -1069,7 +1123,7 @@
         <v>-2.296803311300415E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -1088,7 +1142,7 @@
         <v>0.12950038850840442</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -1110,8 +1164,12 @@
         <f>Working2015!I4</f>
         <v>103.16570879243274</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f>Working2015!Q25</f>
+        <v>26.784627615824995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
@@ -1130,7 +1188,7 @@
         <v>0.3200663582646206</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -1154,8 +1212,12 @@
         <f>Working2015!C45</f>
         <v>0.36291752685797624</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f>Working2015!Q26</f>
+        <v>47.751987499999991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -1174,7 +1236,7 @@
         <v>0.49508624905968723</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -1193,7 +1255,7 @@
         <v>0.44007251055152902</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -1213,8 +1275,12 @@
       <c r="H35">
         <v>609.82241035011566</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f>Working2015!Q27</f>
+        <v>55.413372770892281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
@@ -1233,7 +1299,7 @@
         <v>0.45860803358034363</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1254,7 +1320,7 @@
         <v>850.00019112055929</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1273,7 +1339,7 @@
         <v>1.2338792586054723E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -1292,7 +1358,7 @@
         <v>2.5726233659412217E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
@@ -1311,7 +1377,7 @@
         <v>-2.5999184015266165E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
@@ -1330,7 +1396,7 @@
         <v>0.15569347023179012</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
@@ -1352,8 +1418,12 @@
         <f>Working2015!J4</f>
         <v>98.999673388050653</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f>Working2015!Q28</f>
+        <v>39.61894117048567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
@@ -1372,7 +1442,7 @@
         <v>0.55493260588330862</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>37</v>
       </c>
@@ -1396,8 +1466,12 @@
         <f>Working2015!C57</f>
         <v>0.58422035854299259</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f>Working2015!Q29</f>
+        <v>144.4308125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>37</v>
       </c>
@@ -1416,7 +1490,7 @@
         <v>0.73263817025301192</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>37</v>
       </c>
@@ -1435,7 +1509,7 @@
         <v>0.71802726381423376</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>37</v>
       </c>
@@ -1455,8 +1529,12 @@
       <c r="H47">
         <v>1177.6120684648979</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f>Working2015!Q30</f>
+        <v>242.83188639381245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>37</v>
       </c>
@@ -1504,10 +1582,22 @@
       <c r="A51" s="4"/>
       <c r="B51" s="3"/>
     </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="3"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:I53">
-    <sortCondition ref="A2:A53"/>
-    <sortCondition ref="C2:C53"/>
+  <sortState ref="A2:J63">
+    <sortCondition ref="A2:A63"/>
+    <sortCondition ref="C2:C63"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3034,26 +3124,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L87"/>
+  <dimension ref="B1:W87"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="5">
+        <v>42186</v>
+      </c>
+      <c r="S1" s="5">
+        <v>42217</v>
+      </c>
+      <c r="T1" s="5">
+        <v>42291</v>
+      </c>
+      <c r="U1" s="5">
+        <v>42313</v>
+      </c>
+      <c r="V1" s="5">
+        <v>42327</v>
+      </c>
+      <c r="W1" s="5">
+        <v>42334</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
@@ -3063,8 +3179,29 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>26.784627615824995</v>
+      </c>
+      <c r="U2">
+        <v>47.751987499999991</v>
+      </c>
+      <c r="V2">
+        <v>55.413372770892281</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -3096,8 +3233,26 @@
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>400</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>39.61894117048567</v>
+      </c>
+      <c r="U3">
+        <v>144.4308125</v>
+      </c>
+      <c r="V3">
+        <v>242.83188639381245</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>42291</v>
       </c>
@@ -3129,8 +3284,29 @@
         <f t="shared" ref="L4:L7" si="3">F4*100</f>
         <v>46.633584877350529</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>18.756897021055263</v>
+      </c>
+      <c r="U4">
+        <v>34.433862499999996</v>
+      </c>
+      <c r="V4">
+        <v>60.614684173680061</v>
+      </c>
+      <c r="W4">
+        <v>76.163835016052545</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>42313</v>
       </c>
@@ -3162,8 +3338,26 @@
         <f t="shared" si="3"/>
         <v>306.74999999999989</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>400</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>17.986797034807569</v>
+      </c>
+      <c r="U5">
+        <v>91.719687499999992</v>
+      </c>
+      <c r="V5">
+        <v>199.70428239822084</v>
+      </c>
+      <c r="W5">
+        <v>228.53683135586755</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>42327</v>
       </c>
@@ -3196,7 +3390,7 @@
         <v>895.8122867452829</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>42334</v>
       </c>
@@ -3228,13 +3422,113 @@
         <f t="shared" si="3"/>
         <v>1083.9339894824084</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7">
+        <v>42291</v>
+      </c>
+      <c r="U7">
+        <v>42313</v>
+      </c>
+      <c r="V7">
+        <v>42327</v>
+      </c>
+      <c r="W7">
+        <v>42334</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>9.9331306480692927</v>
+      </c>
+      <c r="U8">
+        <v>18.359682129709054</v>
+      </c>
+      <c r="V8">
+        <v>30.699015912282775</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>400</v>
+      </c>
+      <c r="T9">
+        <v>17.49993175377789</v>
+      </c>
+      <c r="U9">
+        <v>31.534536477233232</v>
+      </c>
+      <c r="V9">
+        <v>42.996640181959108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>6.2120656285903859</v>
+      </c>
+      <c r="U10">
+        <v>16.48607134449032</v>
+      </c>
+      <c r="V10">
+        <v>20.451064716883288</v>
+      </c>
+      <c r="W10">
+        <v>26.900414118237016</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>400</v>
+      </c>
+      <c r="T11">
+        <v>3.1856154679195359</v>
+      </c>
+      <c r="U11">
+        <v>12.000632333088015</v>
+      </c>
+      <c r="V11">
+        <v>35.608907202354153</v>
+      </c>
+      <c r="W11">
+        <v>45.717215359227183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13">
+        <v>42291</v>
+      </c>
+      <c r="U13">
+        <v>42313</v>
+      </c>
+      <c r="V13">
+        <v>42327</v>
+      </c>
+      <c r="W13">
+        <v>42334</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -3244,8 +3538,32 @@
       <c r="E14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>4.9665653240346463</v>
+      </c>
+      <c r="U14">
+        <v>9.1798410648545268</v>
+      </c>
+      <c r="V14">
+        <v>15.349507956141387</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -3277,8 +3595,29 @@
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>400</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>8.749965876888945</v>
+      </c>
+      <c r="U15">
+        <v>15.767268238616616</v>
+      </c>
+      <c r="V15">
+        <v>21.498320090979554</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>42291</v>
       </c>
@@ -3310,8 +3649,32 @@
         <f t="shared" ref="L16:L19" si="8">F16/10</f>
         <v>38.875192170831426</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>3.106032814295193</v>
+      </c>
+      <c r="U16">
+        <v>8.2430356722451599</v>
+      </c>
+      <c r="V16">
+        <v>10.225532358441644</v>
+      </c>
+      <c r="W16">
+        <v>13.450207059118508</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>42313</v>
       </c>
@@ -3343,8 +3706,29 @@
         <f t="shared" si="8"/>
         <v>306.74999999999994</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>400</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1.5928077339597679</v>
+      </c>
+      <c r="U17">
+        <v>6.0003161665440077</v>
+      </c>
+      <c r="V17">
+        <v>17.804453601177077</v>
+      </c>
+      <c r="W17">
+        <v>22.858607679613591</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>42327</v>
       </c>
@@ -3377,7 +3761,7 @@
         <v>895.81228674528279</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>42334</v>
       </c>
@@ -3410,12 +3794,32 @@
         <v>1083.9339894824084</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>42291</v>
+      </c>
+      <c r="Q25">
+        <v>26.784627615824995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P26" s="5">
+        <v>42313</v>
+      </c>
+      <c r="Q26">
+        <v>47.751987499999991</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
@@ -3428,8 +3832,14 @@
       <c r="G27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P27" s="5">
+        <v>42327</v>
+      </c>
+      <c r="Q27">
+        <v>55.413372770892281</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
@@ -3451,8 +3861,17 @@
       <c r="H28">
         <v>400</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>400</v>
+      </c>
+      <c r="P28" s="5">
+        <v>42291</v>
+      </c>
+      <c r="Q28">
+        <v>39.61894117048567</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>42236</v>
       </c>
@@ -3474,8 +3893,14 @@
       <c r="H29">
         <v>-1.4912649951290002E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P29" s="5">
+        <v>42313</v>
+      </c>
+      <c r="Q29">
+        <v>144.4308125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>42251</v>
       </c>
@@ -3497,8 +3922,14 @@
       <c r="H30">
         <v>-3.3227935303172876E-3</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P30" s="5">
+        <v>42327</v>
+      </c>
+      <c r="Q30">
+        <v>242.83188639381245</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>42263</v>
       </c>
@@ -3520,8 +3951,20 @@
       <c r="H31">
         <v>-1.7606491381281033E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>42291</v>
+      </c>
+      <c r="Q31">
+        <v>18.756897021055263</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>42286</v>
       </c>
@@ -3543,8 +3986,14 @@
       <c r="H32">
         <v>0.10669588244407487</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="P32" s="5">
+        <v>42313</v>
+      </c>
+      <c r="Q32">
+        <v>34.433862499999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>42307</v>
       </c>
@@ -3566,8 +4015,14 @@
       <c r="H33">
         <v>0.36241318494733049</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="P33" s="5">
+        <v>42327</v>
+      </c>
+      <c r="Q33">
+        <v>60.614684173680061</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>42313</v>
       </c>
@@ -3589,8 +4044,14 @@
       <c r="H34">
         <v>0.49531254170947692</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="P34" s="5">
+        <v>42334</v>
+      </c>
+      <c r="Q34">
+        <v>76.163835016052545</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>42320</v>
       </c>
@@ -3612,8 +4073,17 @@
       <c r="H35">
         <v>0.63918605584972565</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>400</v>
+      </c>
+      <c r="P35" s="5">
+        <v>42291</v>
+      </c>
+      <c r="Q35">
+        <v>17.986797034807569</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>42326</v>
       </c>
@@ -3635,8 +4105,14 @@
       <c r="H36">
         <v>0.61534720399991338</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="P36" s="5">
+        <v>42313</v>
+      </c>
+      <c r="Q36">
+        <v>91.719687499999992</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>42332</v>
       </c>
@@ -3658,18 +4134,30 @@
       <c r="H37">
         <v>0.63436387671271699</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="P37" s="5">
+        <v>42327</v>
+      </c>
+      <c r="Q37">
+        <v>199.70428239822084</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="P38" s="5">
+        <v>42334</v>
+      </c>
+      <c r="Q38">
+        <v>228.53683135586755</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
         <v>42236</v>
       </c>
@@ -3677,7 +4165,7 @@
         <v>2.5997889987357085E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <v>42251</v>
       </c>
@@ -3685,7 +4173,7 @@
         <v>3.232853852816675E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
         <v>42263</v>
       </c>
@@ -3693,7 +4181,7 @@
         <v>-2.296803311300415E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
         <v>42286</v>
       </c>
@@ -3701,7 +4189,7 @@
         <v>0.12950038850840442</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
         <v>42307</v>
       </c>
@@ -3709,7 +4197,7 @@
         <v>0.3200663582646206</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <v>42313</v>
       </c>
@@ -3717,7 +4205,7 @@
         <v>0.36291752685797624</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <v>42320</v>
       </c>
@@ -3725,7 +4213,7 @@
         <v>0.49508624905968723</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <v>42326</v>
       </c>
@@ -3733,7 +4221,7 @@
         <v>0.44007251055152902</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
         <v>42332</v>
       </c>
